--- a/biology/Zoologie/Adenodictyna_kudoae/Adenodictyna_kudoae.xlsx
+++ b/biology/Zoologie/Adenodictyna_kudoae/Adenodictyna_kudoae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adenodictyna kudoae, unique représentant du genre Adenodictyna, est une espèce d'araignées aranéomorphes de la famille des Dictynidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adenodictyna kudoae, unique représentant du genre Adenodictyna, est une espèce d'araignées aranéomorphes de la famille des Dictynidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'archipel Nansei au Japon[1]. Elle se rencontre sur Amami-Ōshima.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'archipel Nansei au Japon. Elle se rencontre sur Amami-Ōshima.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 2,70 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 2,70 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre et cette espèce sont nommés en l'honneur de Yasue Kudo[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre et cette espèce sont nommés en l'honneur de Yasue Kudo.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ono, 2008 : Five new spiders of the families Dictynidae, Cybaeidae, Coelotidae and Ctenidae (Arachnida, Araneae) from Japan. Bulletin of the National Museum of Nature and Science. Series A, Zoology, vol. 34, no 3, p. 157-171 (texte intégral).</t>
         </is>
